--- a/MON32/doc/MON32标定模板_20201112.xlsx
+++ b/MON32/doc/MON32标定模板_20201112.xlsx
@@ -110,10 +110,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -121,6 +121,65 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,7 +192,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,6 +216,30 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,107 +260,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,7 +283,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,25 +385,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,25 +421,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,115 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,41 +477,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,6 +492,24 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -542,20 +530,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +594,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:U212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="J202" sqref="J202"/>
+      <selection activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/MON32/doc/MON32标定模板_20201112.xlsx
+++ b/MON32/doc/MON32标定模板_20201112.xlsx
@@ -111,8 +111,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -125,7 +125,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,13 +168,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -168,31 +192,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,30 +210,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,9 +238,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,6 +283,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -295,13 +391,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,151 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,11 +477,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,8 +521,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,32 +566,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +594,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,8 +1087,8 @@
   <sheetPr/>
   <dimension ref="A1:U212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="A215" sqref="A215"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2741,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>2.11</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="E91">
-        <v>2.12</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2775,7 +2775,7 @@
         <v>3</v>
       </c>
       <c r="E92">
-        <v>2.13</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2792,7 +2792,7 @@
         <v>4</v>
       </c>
       <c r="E93">
-        <v>2.14</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2809,7 +2809,7 @@
         <v>5</v>
       </c>
       <c r="E94">
-        <v>2.15</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2826,7 +2826,7 @@
         <v>6</v>
       </c>
       <c r="E95">
-        <v>2.16</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2843,7 +2843,7 @@
         <v>7</v>
       </c>
       <c r="E96">
-        <v>2.17</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2860,7 +2860,7 @@
         <v>8</v>
       </c>
       <c r="E97">
-        <v>2.18</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2877,7 +2877,7 @@
         <v>9</v>
       </c>
       <c r="E98">
-        <v>2.19</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2894,7 +2894,7 @@
         <v>10</v>
       </c>
       <c r="E99">
-        <v>2.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2911,7 +2911,7 @@
         <v>11</v>
       </c>
       <c r="E100">
-        <v>2.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2928,7 +2928,7 @@
         <v>12</v>
       </c>
       <c r="E101">
-        <v>2.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2945,7 +2945,7 @@
         <v>13</v>
       </c>
       <c r="E102">
-        <v>2.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2962,7 +2962,7 @@
         <v>14</v>
       </c>
       <c r="E103">
-        <v>2.24</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2979,7 +2979,7 @@
         <v>15</v>
       </c>
       <c r="E104">
-        <v>2.25</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2996,7 +2996,7 @@
         <v>16</v>
       </c>
       <c r="E105">
-        <v>2.26</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3013,7 +3013,7 @@
         <v>17</v>
       </c>
       <c r="E106">
-        <v>2.27</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3030,7 +3030,7 @@
         <v>18</v>
       </c>
       <c r="E107">
-        <v>2.28</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3047,7 +3047,7 @@
         <v>19</v>
       </c>
       <c r="E108">
-        <v>2.29</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3064,7 +3064,7 @@
         <v>20</v>
       </c>
       <c r="E109">
-        <v>2.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3081,7 +3081,7 @@
         <v>21</v>
       </c>
       <c r="E110">
-        <v>2.31</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3098,7 +3098,7 @@
         <v>22</v>
       </c>
       <c r="E111">
-        <v>2.32</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3115,7 +3115,7 @@
         <v>23</v>
       </c>
       <c r="E112">
-        <v>2.33</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3132,7 +3132,7 @@
         <v>24</v>
       </c>
       <c r="E113">
-        <v>2.34000000000001</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3149,7 +3149,7 @@
         <v>25</v>
       </c>
       <c r="E114">
-        <v>2.35000000000001</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3166,7 +3166,7 @@
         <v>26</v>
       </c>
       <c r="E115">
-        <v>2.36000000000001</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3183,7 +3183,7 @@
         <v>27</v>
       </c>
       <c r="E116">
-        <v>2.37000000000001</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3200,7 +3200,7 @@
         <v>28</v>
       </c>
       <c r="E117">
-        <v>2.38000000000001</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3217,7 +3217,7 @@
         <v>29</v>
       </c>
       <c r="E118">
-        <v>2.39000000000001</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3234,7 +3234,7 @@
         <v>30</v>
       </c>
       <c r="E119">
-        <v>2.40000000000001</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3251,7 +3251,7 @@
         <v>31</v>
       </c>
       <c r="E120">
-        <v>2.41000000000001</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3268,7 +3268,7 @@
         <v>32</v>
       </c>
       <c r="E121">
-        <v>2.42000000000001</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3285,7 +3285,7 @@
         <v>33</v>
       </c>
       <c r="E122">
-        <v>2.43000000000001</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3302,7 +3302,7 @@
         <v>34</v>
       </c>
       <c r="E123">
-        <v>2.44000000000001</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3319,7 +3319,7 @@
         <v>35</v>
       </c>
       <c r="E124">
-        <v>2.45000000000001</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3336,7 +3336,7 @@
         <v>36</v>
       </c>
       <c r="E125">
-        <v>2.46000000000001</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3353,7 +3353,7 @@
         <v>37</v>
       </c>
       <c r="E126">
-        <v>2.47000000000001</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3370,7 +3370,7 @@
         <v>38</v>
       </c>
       <c r="E127">
-        <v>2.48000000000001</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3387,7 +3387,7 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2.49000000000001</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3404,7 +3404,7 @@
         <v>40</v>
       </c>
       <c r="E129">
-        <v>2.50000000000001</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3421,7 +3421,7 @@
         <v>41</v>
       </c>
       <c r="E130">
-        <v>2.51000000000001</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3438,7 +3438,7 @@
         <v>42</v>
       </c>
       <c r="E131">
-        <v>2.52000000000001</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3455,7 +3455,7 @@
         <v>43</v>
       </c>
       <c r="E132">
-        <v>2.53000000000001</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3472,7 +3472,7 @@
         <v>44</v>
       </c>
       <c r="E133">
-        <v>2.54000000000001</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3489,7 +3489,7 @@
         <v>45</v>
       </c>
       <c r="E134">
-        <v>2.55000000000001</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3506,7 +3506,7 @@
         <v>46</v>
       </c>
       <c r="E135">
-        <v>2.56000000000001</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3523,7 +3523,7 @@
         <v>47</v>
       </c>
       <c r="E136">
-        <v>2.57000000000001</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3540,7 +3540,7 @@
         <v>48</v>
       </c>
       <c r="E137">
-        <v>2.58000000000001</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3557,7 +3557,7 @@
         <v>49</v>
       </c>
       <c r="E138">
-        <v>2.59000000000001</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3574,7 +3574,7 @@
         <v>50</v>
       </c>
       <c r="E139">
-        <v>2.60000000000001</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3591,7 +3591,7 @@
         <v>51</v>
       </c>
       <c r="E140">
-        <v>2.61000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3608,7 +3608,7 @@
         <v>52</v>
       </c>
       <c r="E141">
-        <v>2.62000000000001</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3625,7 +3625,7 @@
         <v>53</v>
       </c>
       <c r="E142">
-        <v>2.63000000000001</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3642,7 +3642,7 @@
         <v>54</v>
       </c>
       <c r="E143">
-        <v>2.64000000000001</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3659,7 +3659,7 @@
         <v>55</v>
       </c>
       <c r="E144">
-        <v>2.65000000000001</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3676,7 +3676,7 @@
         <v>56</v>
       </c>
       <c r="E145">
-        <v>2.66000000000001</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3693,7 +3693,7 @@
         <v>57</v>
       </c>
       <c r="E146">
-        <v>2.67000000000001</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3710,7 +3710,7 @@
         <v>58</v>
       </c>
       <c r="E147">
-        <v>2.68000000000001</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3727,7 +3727,7 @@
         <v>59</v>
       </c>
       <c r="E148">
-        <v>2.69000000000001</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3744,7 +3744,7 @@
         <v>60</v>
       </c>
       <c r="E149">
-        <v>2.70000000000001</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3761,7 +3761,7 @@
         <v>61</v>
       </c>
       <c r="E150">
-        <v>2.71000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3778,7 +3778,7 @@
         <v>62</v>
       </c>
       <c r="E151">
-        <v>2.72000000000001</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3795,7 +3795,7 @@
         <v>63</v>
       </c>
       <c r="E152">
-        <v>2.73000000000001</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3812,7 +3812,7 @@
         <v>64</v>
       </c>
       <c r="E153">
-        <v>2.74000000000001</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3829,7 +3829,7 @@
         <v>65</v>
       </c>
       <c r="E154">
-        <v>2.75000000000001</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3846,7 +3846,7 @@
         <v>66</v>
       </c>
       <c r="E155">
-        <v>2.76000000000001</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3863,7 +3863,7 @@
         <v>67</v>
       </c>
       <c r="E156">
-        <v>2.77000000000001</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3880,7 +3880,7 @@
         <v>68</v>
       </c>
       <c r="E157">
-        <v>2.78000000000002</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3897,7 +3897,7 @@
         <v>69</v>
       </c>
       <c r="E158">
-        <v>2.79000000000002</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3914,7 +3914,7 @@
         <v>70</v>
       </c>
       <c r="E159">
-        <v>2.80000000000002</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3931,7 +3931,7 @@
         <v>71</v>
       </c>
       <c r="E160">
-        <v>2.81000000000002</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3948,7 +3948,7 @@
         <v>72</v>
       </c>
       <c r="E161">
-        <v>2.82000000000002</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3965,7 +3965,7 @@
         <v>73</v>
       </c>
       <c r="E162">
-        <v>2.83000000000002</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3982,7 +3982,7 @@
         <v>74</v>
       </c>
       <c r="E163">
-        <v>2.84000000000002</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3999,7 +3999,7 @@
         <v>75</v>
       </c>
       <c r="E164">
-        <v>2.85000000000002</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4016,7 +4016,7 @@
         <v>76</v>
       </c>
       <c r="E165">
-        <v>2.86000000000002</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4033,7 +4033,7 @@
         <v>77</v>
       </c>
       <c r="E166">
-        <v>2.87000000000002</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4050,7 +4050,7 @@
         <v>78</v>
       </c>
       <c r="E167">
-        <v>2.88000000000002</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4067,7 +4067,7 @@
         <v>79</v>
       </c>
       <c r="E168">
-        <v>2.89000000000002</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4084,7 +4084,7 @@
         <v>80</v>
       </c>
       <c r="E169">
-        <v>2.90000000000002</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4101,7 +4101,7 @@
         <v>81</v>
       </c>
       <c r="E170">
-        <v>2.91000000000002</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4118,7 +4118,7 @@
         <v>82</v>
       </c>
       <c r="E171">
-        <v>2.92000000000002</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4135,7 +4135,7 @@
         <v>83</v>
       </c>
       <c r="E172">
-        <v>2.93000000000002</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4152,7 +4152,7 @@
         <v>84</v>
       </c>
       <c r="E173">
-        <v>2.94000000000002</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4169,7 +4169,7 @@
         <v>85</v>
       </c>
       <c r="E174">
-        <v>2.95000000000002</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4186,7 +4186,7 @@
         <v>86</v>
       </c>
       <c r="E175">
-        <v>2.96000000000002</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4203,7 +4203,7 @@
         <v>87</v>
       </c>
       <c r="E176">
-        <v>2.97000000000002</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4220,7 +4220,7 @@
         <v>88</v>
       </c>
       <c r="E177">
-        <v>2.98000000000002</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4237,7 +4237,7 @@
         <v>89</v>
       </c>
       <c r="E178">
-        <v>2.99000000000002</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4254,7 +4254,7 @@
         <v>90</v>
       </c>
       <c r="E179">
-        <v>3.00000000000002</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4271,7 +4271,7 @@
         <v>91</v>
       </c>
       <c r="E180">
-        <v>3.01000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4288,7 +4288,7 @@
         <v>92</v>
       </c>
       <c r="E181">
-        <v>3.02000000000002</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4305,7 +4305,7 @@
         <v>93</v>
       </c>
       <c r="E182">
-        <v>3.03000000000002</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4322,7 +4322,7 @@
         <v>94</v>
       </c>
       <c r="E183">
-        <v>3.04000000000002</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4339,7 +4339,7 @@
         <v>95</v>
       </c>
       <c r="E184">
-        <v>3.05000000000002</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4356,7 +4356,7 @@
         <v>96</v>
       </c>
       <c r="E185">
-        <v>3.06000000000002</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4373,7 +4373,7 @@
         <v>97</v>
       </c>
       <c r="E186">
-        <v>3.07000000000002</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="188" spans="1:8">
